--- a/Assets/Data/Data_LaclizeWord.xlsx
+++ b/Assets/Data/Data_LaclizeWord.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\New_3D_Portfolio\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Unity\New_3D_Portfolio\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -142,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자각몽(가제) : Lucid Dream</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Start</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,6 +223,10 @@
   </si>
   <si>
     <t>버리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D 포트폴리오</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,7 +630,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -656,10 +656,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -768,82 +768,82 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Data_LaclizeWord.xlsx
+++ b/Assets/Data/Data_LaclizeWord.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,87 +146,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>시작하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음소거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">성공했어요! </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패했어요 ..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 강화 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D 포트폴리오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봐주셔서 감사합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시 하시겟습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>나가기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시작하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BGM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SFX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효과음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음소거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배경음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">성공했어요! </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실패했어요 ..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Failed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 강화 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버리기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D 포트폴리오</t>
+    <t>Final</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 종료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -656,10 +680,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -771,79 +795,103 @@
         <v>29</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>49</v>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
